--- a/BookVeTau/BookVeTau/bin/Debug/templateSoDoTau.xlsx
+++ b/BookVeTau/BookVeTau/bin/Debug/templateSoDoTau.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15120" windowHeight="4695"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15120" windowHeight="4695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HN-LC toa A" sheetId="1" r:id="rId1"/>
-    <sheet name="HN-LC toa B" sheetId="2" r:id="rId2"/>
-    <sheet name="HN-LC toa bổ sung" sheetId="3" r:id="rId3"/>
-    <sheet name="LC-HN toa A" sheetId="4" r:id="rId4"/>
-    <sheet name="LC-HN toa B" sheetId="5" r:id="rId5"/>
-    <sheet name="LC-HN toa bổ sung" sheetId="6" r:id="rId6"/>
+    <sheet name="HN-LC toa B" sheetId="11" r:id="rId2"/>
+    <sheet name="HN-LC toa BS" sheetId="10" r:id="rId3"/>
+    <sheet name="LC-HN toa A" sheetId="9" r:id="rId4"/>
+    <sheet name="LC-HN toa B" sheetId="8" r:id="rId5"/>
+    <sheet name="LC-HN toa BS" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>Hà Nội - Lào Cai</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Lào Cai - Hà Nội</t>
+  </si>
+  <si>
+    <t>SP4</t>
   </si>
 </sst>
 </file>
@@ -424,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,64 +605,865 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BookVeTau/BookVeTau/bin/Debug/templateSoDoTau.xlsx
+++ b/BookVeTau/BookVeTau/bin/Debug/templateSoDoTau.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15120" windowHeight="4695" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15120" windowHeight="4695" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HN-LC toa A" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,11 +443,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -464,13 +464,13 @@
       <c r="B3" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,11 +620,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -641,13 +641,13 @@
       <c r="B3" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,11 +787,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -808,13 +808,13 @@
       <c r="B3" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,11 +964,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -985,13 +985,13 @@
       <c r="B3" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1141,11 +1141,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -1162,13 +1162,13 @@
       <c r="B3" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1308,11 +1308,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -1329,13 +1329,13 @@
       <c r="B3" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/BookVeTau/BookVeTau/bin/Debug/templateSoDoTau.xlsx
+++ b/BookVeTau/BookVeTau/bin/Debug/templateSoDoTau.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15120" windowHeight="4695" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15120" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="HN-LC toa A" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,20 @@
     <sheet name="LC-HN toa B" sheetId="8" r:id="rId5"/>
     <sheet name="LC-HN toa BS" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'HN-LC toa A'!$A$1:$C$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'HN-LC toa B'!$A$1:$C$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'HN-LC toa BS'!$A$1:$C$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'LC-HN toa A'!$A$1:$C$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'LC-HN toa B'!$A$1:$C$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'LC-HN toa BS'!$A$1:$C$29</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Hà Nội - Lào Cai</t>
   </si>
@@ -46,6 +54,15 @@
   </si>
   <si>
     <t>SP4</t>
+  </si>
+  <si>
+    <t>Toa A</t>
+  </si>
+  <si>
+    <t>Toa B</t>
+  </si>
+  <si>
+    <t>Toa Bổ sung</t>
   </si>
 </sst>
 </file>
@@ -430,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -456,6 +473,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -474,126 +494,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
+    <row r="28" ht="18" customHeight="1"/>
+    <row r="29" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -608,7 +532,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,6 +557,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -651,116 +578,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -800,6 +639,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -818,126 +660,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
+    <row r="28" ht="18" customHeight="1"/>
+    <row r="29" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -977,6 +723,9 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -995,126 +744,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
+    <row r="28" ht="18" customHeight="1"/>
+    <row r="29" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -1154,6 +807,9 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -1172,116 +828,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -1295,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1321,6 +889,9 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -1339,126 +910,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
+    <row r="28" ht="18" customHeight="1"/>
+    <row r="29" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
